--- a/uploads/error_allert_country.xlsx
+++ b/uploads/error_allert_country.xlsx
@@ -146,10 +146,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -160,7 +157,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -583,7 +580,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -592,5 +589,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>